--- a/branches/add_checkbox_q/CodeSystem-product-size.xlsx
+++ b/branches/add_checkbox_q/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T22:24:11+00:00</t>
+    <t>2022-10-12T22:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
